--- a/Leasing/Mapeos_CLS_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CLS_Leasing_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="375" windowWidth="9225" windowHeight="4650" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="PERIODOS" sheetId="8" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -421,6 +421,15 @@
   </si>
   <si>
     <t>Validaciones Generales PERIODOS/ 3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>Leyenda de colores en destinos</t>
+  </si>
+  <si>
+    <t>Cargados por otra fuente</t>
+  </si>
+  <si>
+    <t>Fecha de fin para cierre de registros</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,8 +757,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1228,6 +1249,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1319,7 +1351,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1415,54 +1447,6 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1490,6 +1474,72 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -1968,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1979,7 +2029,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2016,45 +2066,60 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="10"/>
+      <c r="H2" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="10"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="37"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="7"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2066,29 +2131,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2140,18 +2205,18 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="73">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="61" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="49"/>
       <c r="I9" s="51">
         <v>7</v>
@@ -2186,7 +2251,7 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="70" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -2194,7 +2259,7 @@
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="76"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="49"/>
       <c r="I10" s="47">
         <v>8</v>
@@ -2227,15 +2292,15 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="61" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="76"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="49"/>
       <c r="I11" s="47">
         <v>9</v>
@@ -2268,7 +2333,7 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="70" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -2276,7 +2341,7 @@
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="49"/>
       <c r="I12" s="47">
         <v>10</v>
@@ -2306,18 +2371,18 @@
       <c r="R12" s="40"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="79">
+      <c r="B13" s="63">
         <v>5</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="70" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="49"/>
       <c r="I13" s="47">
         <v>11</v>
@@ -2347,18 +2412,18 @@
       <c r="R13" s="40"/>
     </row>
     <row r="14" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="82">
+      <c r="B14" s="66">
         <v>6</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="84"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="49"/>
       <c r="I14" s="47">
         <v>12</v>
@@ -2421,10 +2486,10 @@
       <c r="I16" s="48">
         <v>15</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="69" t="s">
         <v>60</v>
       </c>
       <c r="L16" s="49"/>
@@ -2466,22 +2531,22 @@
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
       <c r="L18" s="49"/>
-      <c r="M18" s="25">
+      <c r="M18" s="88">
         <v>15</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="40"/>
+      <c r="R18" s="90"/>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J19" s="46"/>
@@ -2599,7 +2664,7 @@
       <c r="R24" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M7:R7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B7:G7"/>
@@ -2607,6 +2672,7 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Leasing/Mapeos_CLS_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CLS_Leasing_V1.xlsx
@@ -348,9 +348,6 @@
     <t>COD_CL</t>
   </si>
   <si>
-    <t>CHAR(6)</t>
-  </si>
-  <si>
     <t>NOM_CRO</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>Fecha de fin para cierre de registros</t>
+  </si>
+  <si>
+    <t>CHAR(15)</t>
   </si>
 </sst>
 </file>
@@ -1474,57 +1474,63 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,12 +1539,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -2018,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2066,30 +2066,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
+      <c r="D2" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
+      <c r="H2" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="94"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="37"/>
     </row>
@@ -2098,15 +2098,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="95"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="38"/>
     </row>
@@ -2115,11 +2115,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2131,29 +2131,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>17</v>
@@ -2225,14 +2225,14 @@
         <v>32</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="39">
         <v>7</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="42" t="s">
         <v>40</v>
@@ -2252,10 +2252,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="27"/>
@@ -2275,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>19</v>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>17</v>
@@ -2316,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>22</v>
@@ -2334,10 +2334,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="27"/>
@@ -2347,17 +2347,17 @@
         <v>10</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="56"/>
       <c r="M12" s="25">
         <v>10</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>24</v>
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="64"/>
@@ -2388,17 +2388,17 @@
         <v>11</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="25">
         <v>11</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>41</v>
@@ -2416,7 +2416,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="62" t="s">
         <v>25</v>
@@ -2429,17 +2429,17 @@
         <v>12</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="25">
         <v>14</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>42</v>
@@ -2468,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>43</v>
@@ -2487,17 +2487,17 @@
         <v>15</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="49"/>
       <c r="M16" s="25">
         <v>14</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>44</v>
@@ -2516,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O17" s="34" t="s">
         <v>45</v>
@@ -2531,22 +2531,22 @@
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
       <c r="L18" s="49"/>
-      <c r="M18" s="88">
+      <c r="M18" s="72">
         <v>15</v>
       </c>
-      <c r="N18" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="89" t="s">
+      <c r="N18" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="89" t="s">
+      <c r="P18" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="89" t="s">
+      <c r="Q18" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="90"/>
+      <c r="R18" s="74"/>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J19" s="46"/>
@@ -2555,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="34" t="s">
         <v>46</v>
@@ -2574,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="34" t="s">
         <v>47</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -2593,10 +2593,10 @@
         <v>2</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P21" s="34" t="s">
         <v>26</v>
@@ -2612,10 +2612,10 @@
         <v>15</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>25</v>
@@ -2631,13 +2631,13 @@
         <v>2</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="34" t="s">
         <v>51</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>52</v>
       </c>
       <c r="Q23" s="34" t="s">
         <v>21</v>
@@ -2650,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="N24" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O24" s="43" t="s">
         <v>28</v>
       </c>
       <c r="P24" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="43" t="s">
         <v>21</v>

--- a/Leasing/Mapeos_CLS_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CLS_Leasing_V1.xlsx
@@ -2018,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,15 +2028,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
@@ -2257,7 +2257,9 @@
       <c r="D10" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="44">
+        <v>30</v>
+      </c>
       <c r="F10" s="27"/>
       <c r="G10" s="60"/>
       <c r="H10" s="49"/>

--- a/Leasing/Mapeos_CLS_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CLS_Leasing_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -430,6 +430,18 @@
   </si>
   <si>
     <t>CHAR(15)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -770,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1259,6 +1271,15 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1351,7 +1372,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1442,36 +1463,18 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="85" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1539,6 +1542,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -2018,7 +2040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2066,28 +2088,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="75"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="26" t="s">
         <v>73</v>
       </c>
@@ -2098,14 +2120,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="62" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="55" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="38"/>
@@ -2115,11 +2137,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2131,29 +2153,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="77" t="s">
+      <c r="M7" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2205,18 +2227,18 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="57">
+      <c r="B9" s="52">
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="49"/>
       <c r="I9" s="51">
         <v>7</v>
@@ -2224,10 +2246,10 @@
       <c r="J9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="56"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="39">
         <v>7</v>
       </c>
@@ -2251,7 +2273,7 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="60" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -2261,7 +2283,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="60"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="49"/>
       <c r="I10" s="47">
         <v>8</v>
@@ -2269,10 +2291,10 @@
       <c r="J10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="56"/>
+      <c r="L10" s="88"/>
       <c r="M10" s="25">
         <v>8</v>
       </c>
@@ -2294,15 +2316,15 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="60"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="49"/>
       <c r="I11" s="47">
         <v>9</v>
@@ -2310,10 +2332,10 @@
       <c r="J11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="56"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="25">
         <v>9</v>
       </c>
@@ -2335,7 +2357,7 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="60" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -2343,7 +2365,7 @@
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="60"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="49"/>
       <c r="I12" s="47">
         <v>10</v>
@@ -2351,10 +2373,10 @@
       <c r="J12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="56"/>
+      <c r="L12" s="88"/>
       <c r="M12" s="25">
         <v>10</v>
       </c>
@@ -2373,18 +2395,18 @@
       <c r="R12" s="40"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="63">
+      <c r="B13" s="56">
         <v>5</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="60" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="49"/>
       <c r="I13" s="47">
         <v>11</v>
@@ -2392,10 +2414,10 @@
       <c r="J13" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="49"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="25">
         <v>11</v>
       </c>
@@ -2414,18 +2436,18 @@
       <c r="R13" s="40"/>
     </row>
     <row r="14" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66">
+      <c r="B14" s="58">
         <v>6</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="49"/>
       <c r="I14" s="47">
         <v>12</v>
@@ -2433,10 +2455,10 @@
       <c r="J14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="K14" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="49"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="25">
         <v>14</v>
       </c>
@@ -2462,10 +2484,10 @@
       <c r="J15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="49"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="25">
         <v>14</v>
       </c>
@@ -2483,18 +2505,18 @@
       </c>
       <c r="R15" s="40"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="50"/>
-      <c r="I16" s="48">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H16" s="49"/>
+      <c r="I16" s="47">
         <v>15</v>
       </c>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="49"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="25">
         <v>14</v>
       </c>
@@ -2512,10 +2534,20 @@
       </c>
       <c r="R16" s="40"/>
     </row>
-    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L17" s="49"/>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H17" s="49"/>
+      <c r="I17" s="47">
+        <v>16</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="89"/>
       <c r="M17" s="25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>57</v>
@@ -2531,26 +2563,36 @@
       </c>
       <c r="R17" s="40"/>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="49"/>
-      <c r="M18" s="72">
-        <v>15</v>
-      </c>
-      <c r="N18" s="73" t="s">
+    <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="50"/>
+      <c r="I18" s="48">
+        <v>17</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="89"/>
+      <c r="M18" s="62">
+        <v>17</v>
+      </c>
+      <c r="N18" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="73" t="s">
+      <c r="O18" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="73" t="s">
+      <c r="P18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="73" t="s">
+      <c r="Q18" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="74"/>
+      <c r="R18" s="64"/>
     </row>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="J19" s="46"/>
       <c r="L19" s="49"/>
       <c r="M19" s="25">
@@ -2570,7 +2612,7 @@
       </c>
       <c r="R19" s="40"/>
     </row>
-    <row r="20" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="49"/>
       <c r="M20" s="25">
         <v>1</v>
@@ -2589,7 +2631,7 @@
       </c>
       <c r="R20" s="37"/>
     </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="49"/>
       <c r="M21" s="36">
         <v>2</v>
@@ -2608,7 +2650,7 @@
       </c>
       <c r="R21" s="37"/>
     </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L22" s="49"/>
       <c r="M22" s="36">
         <v>15</v>
@@ -2627,7 +2669,7 @@
       </c>
       <c r="R22" s="37"/>
     </row>
-    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="49"/>
       <c r="M23" s="36">
         <v>2</v>
@@ -2646,7 +2688,7 @@
       </c>
       <c r="R23" s="37"/>
     </row>
-    <row r="24" spans="10:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="50"/>
       <c r="M24" s="35">
         <v>2</v>
